--- a/Статистика.xlsx
+++ b/Статистика.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>Зачисление</t>
   </si>
@@ -289,9 +289,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>~1000</t>
-  </si>
-  <si>
     <t>парус</t>
   </si>
   <si>
@@ -322,10 +319,34 @@
     <t>итого</t>
   </si>
   <si>
-    <t>~57500</t>
-  </si>
-  <si>
-    <t>~88500</t>
+    <t>~1500</t>
+  </si>
+  <si>
+    <t>Крд</t>
+  </si>
+  <si>
+    <t>обув</t>
+  </si>
+  <si>
+    <t>терм</t>
+  </si>
+  <si>
+    <t>блен</t>
+  </si>
+  <si>
+    <t>хаб</t>
+  </si>
+  <si>
+    <t>перех</t>
+  </si>
+  <si>
+    <t>ссд</t>
+  </si>
+  <si>
+    <t>2-4ч 08.23</t>
+  </si>
+  <si>
+    <t>1-4ч 09.23</t>
   </si>
 </sst>
 </file>
@@ -554,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -885,13 +906,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,9 +1133,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1221,9 +1280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,6 +1301,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,8 +1319,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4933,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L29" activeCellId="1" sqref="R33 L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5689,21 +5806,21 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T11" s="80">
+      <c r="T11" s="79">
         <v>45170</v>
       </c>
-      <c r="U11" s="81">
+      <c r="U11" s="80">
         <v>3</v>
       </c>
-      <c r="V11" s="81">
+      <c r="V11" s="80">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="W11" s="82">
+      <c r="W11" s="81">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="X11" s="81">
+      <c r="X11" s="80">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
@@ -5839,20 +5956,20 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="150">
         <v>44994</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="152">
         <v>10438</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="152">
         <v>5300</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="152">
         <v>4500</v>
       </c>
       <c r="F14" s="27">
@@ -5861,7 +5978,7 @@
       <c r="G14" s="28">
         <v>20</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="161">
         <f t="shared" si="9"/>
         <v>618</v>
       </c>
@@ -5911,30 +6028,30 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="15" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="147">
         <v>44999</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="149">
         <v>10438</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="149">
         <v>6000</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="154">
         <v>3875</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="158">
         <v>5000</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15">
+      <c r="G15" s="159"/>
+      <c r="H15" s="162">
         <v>1004</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="160">
         <v>55</v>
       </c>
       <c r="J15" s="66"/>
@@ -5957,14 +6074,14 @@
       <c r="E16" s="15">
         <v>3875</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="149">
         <v>5000</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="15">
+      <c r="G16" s="153"/>
+      <c r="H16" s="154">
         <v>563</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="156">
         <v>106</v>
       </c>
       <c r="J16" s="65"/>
@@ -5981,7 +6098,7 @@
       <c r="C17" s="15">
         <v>10438</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="82">
         <v>6000</v>
       </c>
       <c r="E17" s="15">
@@ -5991,13 +6108,13 @@
         <v>5000</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="15">
+      <c r="H17" s="155">
         <v>1563</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="157">
         <v>-3000</v>
       </c>
-      <c r="J17" s="78"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="59"/>
       <c r="L17" s="64" t="s">
         <v>74</v>
@@ -6017,23 +6134,23 @@
       <c r="C18" s="15">
         <v>10441</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="83">
         <v>6000</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="83">
         <v>3875</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F18" s="90">
         <v>887</v>
       </c>
       <c r="G18" s="15">
         <v>8</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="84">
         <f t="shared" ref="H18:H38" si="10">C18-D18-E18-G18</f>
         <v>558</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="56"/>
       <c r="K18" s="59"/>
       <c r="L18" s="74">
@@ -6067,7 +6184,7 @@
         <v>5000</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="85">
+      <c r="H19" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
@@ -6075,11 +6192,11 @@
       <c r="J19" s="56"/>
       <c r="K19" s="59"/>
       <c r="L19" s="70"/>
-      <c r="M19" s="123"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="59"/>
-      <c r="O19" s="124">
+      <c r="O19" s="123">
         <f>M21+M18-R23</f>
-        <v>3354</v>
+        <v>6548</v>
       </c>
       <c r="Q19" t="s">
         <v>86</v>
@@ -6111,7 +6228,7 @@
         <v>5000</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="85">
+      <c r="H20" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
@@ -6123,7 +6240,7 @@
       </c>
       <c r="M20" s="71">
         <f>L21+M21</f>
-        <v>10934</v>
+        <v>-4872</v>
       </c>
       <c r="T20" s="40">
         <v>44562</v>
@@ -6152,7 +6269,7 @@
         <v>5000</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="85">
+      <c r="H21" s="84">
         <f t="shared" si="10"/>
         <v>1566</v>
       </c>
@@ -6160,14 +6277,14 @@
       <c r="K21" s="62"/>
       <c r="L21" s="75">
         <f>F60</f>
-        <v>5080</v>
+        <v>-13920</v>
       </c>
       <c r="M21" s="73">
         <f>I60</f>
-        <v>5854</v>
-      </c>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
+        <v>9048</v>
+      </c>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
       <c r="T21" s="40">
         <v>44593</v>
       </c>
@@ -6182,7 +6299,7 @@
       <c r="B22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="83">
         <v>10441</v>
       </c>
       <c r="D22" s="15">
@@ -6191,11 +6308,11 @@
       <c r="E22" s="15">
         <v>4490</v>
       </c>
-      <c r="F22" s="91">
+      <c r="F22" s="90">
         <v>938</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="85">
+      <c r="H22" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
@@ -6219,7 +6336,7 @@
       <c r="B23" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>10441</v>
       </c>
       <c r="D23" s="15">
@@ -6232,31 +6349,31 @@
         <v>5000</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="85">
+      <c r="H23" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="30"/>
-      <c r="L23" s="108" t="s">
+      <c r="L23" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="M23" s="97">
+      <c r="M23" s="96">
         <v>33990</v>
       </c>
-      <c r="N23" s="100" t="s">
+      <c r="N23" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="105">
+      <c r="O23" s="104">
         <v>5000</v>
       </c>
-      <c r="Q23" s="117" t="s">
+      <c r="Q23" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="R23" s="117">
+      <c r="R23" s="116">
         <v>2500</v>
       </c>
-      <c r="S23" s="128"/>
+      <c r="S23" s="127"/>
       <c r="T23" s="40">
         <v>44652</v>
       </c>
@@ -6271,7 +6388,7 @@
       <c r="B24" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="83">
         <v>10441</v>
       </c>
       <c r="D24" s="15">
@@ -6284,25 +6401,25 @@
         <v>5000</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="85">
+      <c r="H24" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="L24" s="109">
+      <c r="L24" s="108">
         <v>0.03</v>
       </c>
-      <c r="M24" s="110">
+      <c r="M24" s="109">
         <v>869.7</v>
       </c>
-      <c r="N24" s="101" t="s">
+      <c r="N24" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="O24" s="106">
+      <c r="O24" s="105">
         <v>5000</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="S24" s="8"/>
       <c r="T24" s="40">
@@ -6319,7 +6436,7 @@
       <c r="B25" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="83">
         <v>10441</v>
       </c>
       <c r="D25" s="15">
@@ -6332,24 +6449,24 @@
         <v>5000</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="85">
+      <c r="H25" s="84">
         <f t="shared" si="10"/>
         <v>1566</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="89">
         <v>279</v>
       </c>
-      <c r="L25" s="95" t="s">
+      <c r="L25" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="M25" s="98">
+      <c r="M25" s="97">
         <v>10000</v>
       </c>
-      <c r="N25" s="101" t="s">
+      <c r="N25" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="O25" s="106"/>
-      <c r="Q25" s="125">
+      <c r="O25" s="105"/>
+      <c r="Q25" s="124">
         <v>45145</v>
       </c>
       <c r="R25" s="8">
@@ -6370,7 +6487,7 @@
       <c r="B26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="83">
         <v>10441</v>
       </c>
       <c r="D26" s="15">
@@ -6379,27 +6496,27 @@
       <c r="E26" s="15">
         <v>5875</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="90">
         <v>5720</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="85">
+      <c r="H26" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="L26" s="96" t="s">
+      <c r="L26" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="M26" s="99">
+      <c r="M26" s="98">
         <f>M23-M25</f>
         <v>23990</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="N26" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="O26" s="107"/>
-      <c r="Q26" s="126">
+      <c r="O26" s="106"/>
+      <c r="Q26" s="125">
         <v>45159</v>
       </c>
       <c r="T26" s="40">
@@ -6416,7 +6533,7 @@
       <c r="B27" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="83">
         <v>10441</v>
       </c>
       <c r="D27" s="15">
@@ -6429,7 +6546,7 @@
         <v>5000</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="85">
+      <c r="H27" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
@@ -6448,7 +6565,7 @@
       <c r="B28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="83">
         <v>10441</v>
       </c>
       <c r="D28" s="15">
@@ -6461,7 +6578,7 @@
         <v>5000</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="85">
+      <c r="H28" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
@@ -6473,19 +6590,19 @@
         <v>3</v>
       </c>
       <c r="N28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="128"/>
+      <c r="P28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O28" s="129"/>
-      <c r="P28" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="Q28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S28" s="136"/>
+      <c r="S28" s="134"/>
       <c r="T28" s="40">
         <v>44805</v>
       </c>
@@ -6500,7 +6617,7 @@
       <c r="B29" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="83">
         <v>10441</v>
       </c>
       <c r="D29" s="15">
@@ -6513,26 +6630,26 @@
         <v>5000</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="85">
+      <c r="H29" s="84">
         <f t="shared" si="10"/>
         <v>1566</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="134" t="s">
+      <c r="K29" s="132" t="s">
         <v>84</v>
       </c>
       <c r="L29" s="4">
         <v>31323</v>
       </c>
-      <c r="M29" s="135">
+      <c r="M29" s="133">
         <v>2698</v>
       </c>
-      <c r="N29" s="143">
+      <c r="N29" s="142">
         <v>24000</v>
       </c>
-      <c r="O29" s="129" t="s">
-        <v>95</v>
+      <c r="O29" s="128" t="s">
+        <v>94</v>
       </c>
       <c r="P29" s="4">
         <v>12</v>
@@ -6544,7 +6661,7 @@
         <f>P29*Q29</f>
         <v>24120</v>
       </c>
-      <c r="S29" s="136"/>
+      <c r="S29" s="134"/>
       <c r="T29" s="40">
         <v>44835</v>
       </c>
@@ -6559,7 +6676,7 @@
       <c r="B30" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="83">
         <v>10441</v>
       </c>
       <c r="D30" s="15">
@@ -6568,28 +6685,29 @@
       <c r="E30" s="15">
         <v>3875</v>
       </c>
-      <c r="F30" s="93">
+      <c r="F30" s="92">
         <v>1745</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="85">
+      <c r="H30" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="30"/>
-      <c r="K30" s="134" t="s">
+      <c r="K30" s="132" t="s">
         <v>85</v>
       </c>
       <c r="L30" s="4">
-        <v>57500</v>
-      </c>
-      <c r="M30" s="112">
-        <v>4500</v>
-      </c>
-      <c r="N30" s="143"/>
-      <c r="O30" s="129" t="s">
-        <v>93</v>
+        <v>68700</v>
+      </c>
+      <c r="M30" s="111">
+        <f>L30*0.08</f>
+        <v>5496</v>
+      </c>
+      <c r="N30" s="142"/>
+      <c r="O30" s="128" t="s">
+        <v>92</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -6597,7 +6715,7 @@
         <f>R29*0.15</f>
         <v>3618</v>
       </c>
-      <c r="S30" s="136"/>
+      <c r="S30" s="134"/>
       <c r="T30" s="40">
         <v>44866</v>
       </c>
@@ -6612,7 +6730,7 @@
       <c r="B31" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="83">
         <v>10441</v>
       </c>
       <c r="D31" s="15">
@@ -6625,22 +6743,22 @@
         <v>5000</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="85">
+      <c r="H31" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="L31" s="142"/>
-      <c r="M31" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="N31" s="144"/>
+      <c r="K31" s="141">
+        <v>90000</v>
+      </c>
+      <c r="L31" s="141"/>
+      <c r="M31" s="143">
+        <v>42000</v>
+      </c>
+      <c r="N31" s="143"/>
       <c r="O31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P31" s="4">
         <v>28</v>
@@ -6652,7 +6770,7 @@
         <f>P31*Q31</f>
         <v>38808</v>
       </c>
-      <c r="S31" s="136"/>
+      <c r="S31" s="134"/>
       <c r="T31" s="40">
         <v>44896</v>
       </c>
@@ -6667,7 +6785,7 @@
       <c r="B32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="83">
         <v>10441</v>
       </c>
       <c r="D32" s="15">
@@ -6680,28 +6798,28 @@
         <v>5000</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="85">
+      <c r="H32" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
-      <c r="I32" s="85">
+      <c r="I32" s="84">
         <v>18890</v>
       </c>
       <c r="J32" s="30"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="130" t="s">
-        <v>94</v>
-      </c>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
       <c r="R32" s="4">
         <f>(SUM(R29:R31))*0.13</f>
         <v>8650.98</v>
       </c>
-      <c r="S32" s="136"/>
+      <c r="S32" s="134"/>
       <c r="T32" s="40">
         <v>44927</v>
       </c>
@@ -6716,36 +6834,40 @@
       <c r="B33" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="83">
         <v>10441</v>
       </c>
-      <c r="D33" s="115">
+      <c r="D33" s="114">
         <v>4500</v>
       </c>
-      <c r="E33" s="115">
+      <c r="E33" s="114">
         <v>4375</v>
       </c>
-      <c r="F33" s="113">
+      <c r="F33" s="112">
         <v>5000</v>
       </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="114">
+      <c r="G33" s="110"/>
+      <c r="H33" s="113">
         <f t="shared" si="10"/>
         <v>1566</v>
       </c>
-      <c r="I33" s="112"/>
+      <c r="I33" s="111"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="59"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="133">
+      <c r="M33" s="103"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="144">
+        <v>3200</v>
+      </c>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="131">
         <v>59000</v>
       </c>
-      <c r="S33" s="137"/>
+      <c r="S33" s="135"/>
       <c r="T33" s="40">
         <v>44958</v>
       </c>
@@ -6760,33 +6882,39 @@
       <c r="B34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="115">
+      <c r="C34" s="114">
         <v>9444</v>
       </c>
-      <c r="D34" s="115">
+      <c r="D34" s="114">
         <v>5000</v>
       </c>
-      <c r="E34" s="115">
+      <c r="E34" s="114">
         <v>3750</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="92">
         <v>4125</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="114">
+      <c r="H34" s="113">
         <f t="shared" si="10"/>
         <v>694</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="30"/>
-      <c r="K34" s="127" t="s">
-        <v>88</v>
+      <c r="K34" s="126" t="s">
+        <v>87</v>
       </c>
       <c r="L34" s="59">
         <v>120</v>
       </c>
-      <c r="M34" s="104"/>
-      <c r="N34" s="94"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="145">
+        <v>24000</v>
+      </c>
       <c r="T34" s="40">
         <v>44986</v>
       </c>
@@ -6801,31 +6929,37 @@
       <c r="B35" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="114">
         <v>9445</v>
       </c>
-      <c r="D35" s="115">
+      <c r="D35" s="114">
         <v>5000</v>
       </c>
-      <c r="E35" s="115">
+      <c r="E35" s="114">
         <v>3750</v>
       </c>
-      <c r="F35" s="119">
+      <c r="F35" s="118">
         <v>5000</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="114">
+      <c r="H35" s="113">
         <f t="shared" si="10"/>
         <v>695</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="30"/>
       <c r="K35" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L35">
         <v>4000</v>
       </c>
+      <c r="O35" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" s="145">
+        <v>6500</v>
+      </c>
       <c r="T35" s="40">
         <v>45017</v>
       </c>
@@ -6834,35 +6968,41 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="140">
+      <c r="A36" s="139">
         <v>45175</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="115">
+      <c r="C36" s="114">
         <v>9445</v>
       </c>
-      <c r="D36" s="115">
+      <c r="D36" s="114">
         <v>6000</v>
       </c>
-      <c r="E36" s="115">
+      <c r="E36" s="114">
         <v>2750</v>
       </c>
-      <c r="F36" s="93">
+      <c r="F36" s="92">
         <v>4120</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="114">
+      <c r="H36" s="113">
         <f t="shared" si="10"/>
         <v>695</v>
       </c>
-      <c r="I36" s="118">
+      <c r="I36" s="117">
         <v>-2500</v>
       </c>
-      <c r="J36" s="116"/>
-      <c r="K36" s="120"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="119"/>
       <c r="L36" s="8"/>
+      <c r="O36" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="145">
+        <v>3000</v>
+      </c>
       <c r="T36" s="40">
         <v>45047</v>
       </c>
@@ -6871,27 +7011,33 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="141"/>
+      <c r="A37" s="140"/>
       <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="115">
+      <c r="C37" s="114">
         <v>9445</v>
       </c>
-      <c r="D37" s="115">
+      <c r="D37" s="114">
         <v>6000</v>
       </c>
-      <c r="E37" s="115">
+      <c r="E37" s="114">
         <v>2750</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="114">
+      <c r="H37" s="113">
         <f t="shared" si="10"/>
         <v>695</v>
       </c>
       <c r="I37" s="29"/>
-      <c r="J37" s="116"/>
+      <c r="J37" s="115"/>
+      <c r="O37" s="145" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="145">
+        <v>3000</v>
+      </c>
       <c r="T37" s="40">
         <v>45078</v>
       </c>
@@ -6916,12 +7062,18 @@
         <v>3875</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="85">
+      <c r="H38" s="84">
         <f t="shared" si="10"/>
         <v>566</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="31"/>
+      <c r="O38" s="145" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" s="145">
+        <v>3500</v>
+      </c>
       <c r="T38" s="40">
         <v>45108</v>
       </c>
@@ -6932,20 +7084,28 @@
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="48" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C39" s="7">
-        <v>10441</v>
+        <v>31323</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="111">
+        <v>2698</v>
+      </c>
       <c r="I39" s="29"/>
       <c r="J39" s="31"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="122"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="121"/>
+      <c r="O39" s="145" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" s="145">
+        <v>600</v>
+      </c>
       <c r="T39" s="40">
         <v>45139</v>
       </c>
@@ -6953,23 +7113,35 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="7">
-        <v>10441</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="165"/>
+      <c r="B40" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="166">
+        <v>59000</v>
+      </c>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166">
+        <v>19000</v>
+      </c>
+      <c r="G40" s="166"/>
+      <c r="H40" s="167">
+        <v>5496</v>
+      </c>
+      <c r="I40" s="167">
+        <v>5000</v>
+      </c>
       <c r="J40" s="30"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
+      <c r="O40" s="145" t="s">
+        <v>104</v>
+      </c>
+      <c r="P40" s="145">
+        <v>4000</v>
+      </c>
       <c r="T40" s="40">
         <v>45170</v>
       </c>
@@ -6977,22 +7149,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="7">
-        <v>10441</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="163"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
       <c r="K41" s="8"/>
       <c r="L41" s="51"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="146"/>
+      <c r="P41" s="146">
+        <f>SUM(P33:P40)</f>
+        <v>47800</v>
+      </c>
       <c r="T41" s="40">
         <v>45200</v>
       </c>
@@ -7000,9 +7174,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="B42" s="14"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -7010,7 +7182,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="L42" s="121"/>
+      <c r="L42" s="120"/>
       <c r="T42" s="40">
         <v>45231</v>
       </c>
@@ -7018,9 +7190,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="B43" s="14"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -7035,9 +7205,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="17" t="s">
-        <v>47</v>
-      </c>
+      <c r="B44" s="14"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -7048,9 +7216,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="B45" s="14"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -7211,18 +7377,18 @@
       <c r="J58" s="38"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="138" t="s">
+      <c r="A60" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="76">
         <v>28</v>
       </c>
-      <c r="F60" s="86">
+      <c r="F60" s="85">
         <f>SUM(E15:E53)-SUM(F16:F53)</f>
-        <v>5080</v>
+        <v>-13920</v>
       </c>
       <c r="G60" s="60" t="s">
         <v>66</v>
@@ -7230,29 +7396,29 @@
       <c r="H60" s="76">
         <v>0</v>
       </c>
-      <c r="I60" s="87">
+      <c r="I60" s="86">
         <f>SUM(H15:H56)-SUM(I17:I56)</f>
-        <v>5854</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E61" s="63"/>
-      <c r="F61" s="89"/>
-      <c r="H61" s="139"/>
-      <c r="I61" s="139"/>
+      <c r="F61" s="88"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="89"/>
+      <c r="F62" s="88"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F63" s="89"/>
+      <c r="F63" s="88"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F64" s="89"/>
+      <c r="F64" s="88"/>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9296,12 +9462,12 @@
       <c r="I49" s="32"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="138" t="s">
+      <c r="A52" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
       <c r="E52" s="5">
         <f>SUM(E2:E51)-SUM(F2:F51)</f>
         <v>0</v>
@@ -9376,70 +9542,70 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="111">
+      <c r="A1" s="110">
         <v>9444</v>
       </c>
-      <c r="B1" s="111">
+      <c r="B1" s="110">
         <v>5000</v>
       </c>
-      <c r="C1" s="111">
+      <c r="C1" s="110">
         <v>3750</v>
       </c>
-      <c r="F1" s="112">
+      <c r="F1" s="111">
         <f>A1-B1-C1-E1</f>
         <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="111">
+      <c r="A2" s="110">
         <v>9445</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="110">
         <v>5000</v>
       </c>
-      <c r="C2" s="111">
+      <c r="C2" s="110">
         <v>3750</v>
       </c>
       <c r="D2" s="7">
         <v>5000</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="111">
         <f>A2-B2-C2-E2</f>
         <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="111">
+      <c r="A3" s="110">
         <v>9445</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="110">
         <v>5000</v>
       </c>
-      <c r="C3" s="111">
+      <c r="C3" s="110">
         <v>3750</v>
       </c>
       <c r="D3" s="7">
         <v>5000</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="111">
         <f>A3-B3-C3-E3</f>
         <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="111">
+      <c r="A4" s="110">
         <v>9445</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="110">
         <v>5000</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="110">
         <v>3750</v>
       </c>
       <c r="D4" s="7">
         <v>5000</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="111">
         <f>A4-B4-C4-E4</f>
         <v>695</v>
       </c>
